--- a/biology/Écologie/Agribashing/Agribashing.xlsx
+++ b/biology/Écologie/Agribashing/Agribashing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agribashing désigne, en France, la critique du mode de production agricole intensif. Apparue en 2016 et rapidement populaire après 2018, la notion d'agribashing reste controversée.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme agribashing apparaît en 2016 sur le fil Twitter de l'animateur du blog polémiste Agriculture &amp; Environnement. Il trouve un premier écho médiatique et politique en 2018, lors des discussions sur la loi agriculture et alimentation, et devient un mot d'ordre popularisé par la FNSEA en 2019[1], d'abord lors des élections aux chambres d'agriculture, puis lors de manifestations d'agriculteurs[2] contre les zones de non-traitement aux pesticides. La notion d'agribashing reçoit une reconnaissance institutionnelle avec la création de la cellule Déméter de la gendarmerie nationale en octobre 2019[3],[4], ainsi qu'avec le déploiement progressif « d'observatoires de l'agribashing » dans plusieurs préfectures[5].
-Le vice-président de la FNSEA reconnaît en février 2020 que son syndicat est bien à l'origine de la création de la cellule Déméter[6].
-Le terme d'« agriloving » est créé en 2019 par des professionnels de la communication au sein de l'entreprise InVivo, qui est le premier groupe agricole coopératif français[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme agribashing apparaît en 2016 sur le fil Twitter de l'animateur du blog polémiste Agriculture &amp; Environnement. Il trouve un premier écho médiatique et politique en 2018, lors des discussions sur la loi agriculture et alimentation, et devient un mot d'ordre popularisé par la FNSEA en 2019, d'abord lors des élections aux chambres d'agriculture, puis lors de manifestations d'agriculteurs contre les zones de non-traitement aux pesticides. La notion d'agribashing reçoit une reconnaissance institutionnelle avec la création de la cellule Déméter de la gendarmerie nationale en octobre 2019 ainsi qu'avec le déploiement progressif « d'observatoires de l'agribashing » dans plusieurs préfectures.
+Le vice-président de la FNSEA reconnaît en février 2020 que son syndicat est bien à l'origine de la création de la cellule Déméter.
+Le terme d'« agriloving » est créé en 2019 par des professionnels de la communication au sein de l'entreprise InVivo, qui est le premier groupe agricole coopératif français.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Pertinence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée d'agribashing fonctionne, selon Rémi Mer, comme un double leurre : elle cache d'une part l'image très positive des agriculteurs dans l'opinion publique française[7], et occulte la stratégie médiatique des ONG les plus virulentes envers l'agriculture intensive, en postulant à la place un dénigrement généralisé du monde agricole. Ainsi, si « le terme agribashing traduit le sentiment bien réel de dénigrement que vivent certains agriculteurs », il a cependant plus tendance à obscurcir qu'à rendre compte fidèlement des relations entre les agriculteurs et la société[8].
-Le succès du terme proviendrait d'une boucle médiatique : si l'on parle tant de l'agribashing, c'est donc qu'il existe[9]. Sa pertinence est cependant faible, puisqu'il s'inscrit dans une stratégie de communication victimaire et corporatiste qui ne favorise pas le dialogue[10].
-Ainsi, pour Yannick Sencébé, « l’agribashing n’est pas saisissable à travers la recension des fauteurs de trouble qui en seraient à l’origine mais dans les intentions de ceux qui le font exister par la constitution et l’instrumentalisation d’un narratif du dénigrement généralisé de l’agriculture et par des dispositifs d’enrôlement des pouvoirs publics et de mobilisation syndicale des producteurs »[11].
-Eddy Fougier, politologue, définit l'agribashing comme le fait de dire du mal de l'agriculture et des agriculteurs. Selon lui, c'est davantage l'agriculture qui est visée que les agriculteurs[12][source insuffisante].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée d'agribashing fonctionne, selon Rémi Mer, comme un double leurre : elle cache d'une part l'image très positive des agriculteurs dans l'opinion publique française, et occulte la stratégie médiatique des ONG les plus virulentes envers l'agriculture intensive, en postulant à la place un dénigrement généralisé du monde agricole. Ainsi, si « le terme agribashing traduit le sentiment bien réel de dénigrement que vivent certains agriculteurs », il a cependant plus tendance à obscurcir qu'à rendre compte fidèlement des relations entre les agriculteurs et la société.
+Le succès du terme proviendrait d'une boucle médiatique : si l'on parle tant de l'agribashing, c'est donc qu'il existe. Sa pertinence est cependant faible, puisqu'il s'inscrit dans une stratégie de communication victimaire et corporatiste qui ne favorise pas le dialogue.
+Ainsi, pour Yannick Sencébé, « l’agribashing n’est pas saisissable à travers la recension des fauteurs de trouble qui en seraient à l’origine mais dans les intentions de ceux qui le font exister par la constitution et l’instrumentalisation d’un narratif du dénigrement généralisé de l’agriculture et par des dispositifs d’enrôlement des pouvoirs publics et de mobilisation syndicale des producteurs ».
+Eddy Fougier, politologue, définit l'agribashing comme le fait de dire du mal de l'agriculture et des agriculteurs. Selon lui, c'est davantage l'agriculture qui est visée que les agriculteurs[source insuffisante].
 </t>
         </is>
       </c>
@@ -578,11 +594,13 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion d'agribashing est critiquée au sein du monde paysan. Pour la Coordination rurale, « L'agribashing cache la forêt. La priorité reste d'augmenter les revenus des agriculteurs et de les tirer du bourbier administratif dans lequel ils sont plongés ». La Confédération paysanne estime que l'agribashing consiste à adopter une position victimaire afin d'éviter « d'aborder des sujets à propos desquels la société s'interroge légitimement, comme la place des pesticides ou la qualité de l'alimentation »[1]. 
-Pour les journalistes Stéphane Foucart[13] et Stéphane Horel, l'agribashing fonctionne comme le point Godwin de la critique du système agricole productiviste, et sert de « levier d’influence pour une partie du monde agricole »[4]. Le journaliste Gilles Luneau considère lui que la FNSEA manipulerait, par l'emploi du terme agribashing, les représentations d'un malaise agricole dans lequel le syndicat aurait joué un rôle fondateur[14].
-Plusieurs associations promouvant l'agriculture paysanne et biologique et associations de protection de la nature dénoncent l'agribashing comme « une invention des communicants de la FNSEA »[15],[16], un moyen de pression du lobby productiviste[17],[18][source insuffisante].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion d'agribashing est critiquée au sein du monde paysan. Pour la Coordination rurale, « L'agribashing cache la forêt. La priorité reste d'augmenter les revenus des agriculteurs et de les tirer du bourbier administratif dans lequel ils sont plongés ». La Confédération paysanne estime que l'agribashing consiste à adopter une position victimaire afin d'éviter « d'aborder des sujets à propos desquels la société s'interroge légitimement, comme la place des pesticides ou la qualité de l'alimentation ». 
+Pour les journalistes Stéphane Foucart et Stéphane Horel, l'agribashing fonctionne comme le point Godwin de la critique du système agricole productiviste, et sert de « levier d’influence pour une partie du monde agricole ». Le journaliste Gilles Luneau considère lui que la FNSEA manipulerait, par l'emploi du terme agribashing, les représentations d'un malaise agricole dans lequel le syndicat aurait joué un rôle fondateur.
+Plusieurs associations promouvant l'agriculture paysanne et biologique et associations de protection de la nature dénoncent l'agribashing comme « une invention des communicants de la FNSEA » un moyen de pression du lobby productiviste,[source insuffisante].
 </t>
         </is>
       </c>
